--- a/DataExtraction/Input/DIR/DIR-12_nodes_config.xlsx
+++ b/DataExtraction/Input/DIR/DIR-12_nodes_config.xlsx
@@ -64,7 +64,7 @@
     <t>Full1_C,TextField1,TextField1_C,Nationality1_N,Father1_C,PresentAdd1_C</t>
   </si>
   <si>
-    <t>name,gender,date_of_birth, nationality,father_name,address</t>
+    <t>name,gender,date_of_birth,nationality,father_name,address</t>
   </si>
 </sst>
 </file>

--- a/DataExtraction/Input/DIR/DIR-12_nodes_config.xlsx
+++ b/DataExtraction/Input/DIR/DIR-12_nodes_config.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>Field_Name</t>
   </si>
@@ -37,6 +37,24 @@
     <t>Column_JSON_Node</t>
   </si>
   <si>
+    <t>No_of_directors</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>ZMCA_NCA_DIR_12</t>
+  </si>
+  <si>
+    <t>NUM_MD_DIR</t>
+  </si>
+  <si>
+    <t>if this field is greater than zero then have to run below and insert below fields in authorized signatories table</t>
+  </si>
+  <si>
     <t>authorized_signatories</t>
   </si>
   <si>
@@ -65,6 +83,9 @@
   </si>
   <si>
     <t>name,gender,date_of_birth,nationality,father_name,address</t>
+  </si>
+  <si>
+    <t>XML Tags Issue - Not implemented</t>
   </si>
 </sst>
 </file>
@@ -74,7 +95,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -98,6 +119,11 @@
     </font>
     <font>
       <sz val="10"/>
+      <color indexed="11"/>
+      <name val="Courier New"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
@@ -117,12 +143,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
+        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -156,7 +182,7 @@
         <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -165,13 +191,28 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
         <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -213,6 +254,21 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
         <color indexed="10"/>
       </top>
       <bottom style="thin">
@@ -226,7 +282,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -245,31 +301,52 @@
     <xf numFmtId="49" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="justify" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -291,6 +368,7 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff881280"/>
       <rgbColor rgb="ff9bbb59"/>
     </indexedColors>
   </colors>
@@ -1323,7 +1401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1336,8 +1414,9 @@
     <col min="5" max="5" width="44.8516" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="49.5625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85156" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6719" style="1" customWidth="1"/>
+    <col min="9" max="9" width="29.1719" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -1365,66 +1444,95 @@
       <c r="H1" t="s" s="5">
         <v>7</v>
       </c>
+      <c r="I1" s="6"/>
     </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="2" ht="39.55" customHeight="1">
+      <c r="A2" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
+      <c r="B2" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="I2" t="s" s="13">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" ht="24.65" customHeight="1">
-      <c r="A3" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s" s="13">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s" s="12">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s" s="14">
-        <v>13</v>
-      </c>
-      <c r="H3" s="9"/>
+    <row r="3" ht="13.55" customHeight="1">
+      <c r="A3" t="s" s="14">
+        <v>14</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
     </row>
-    <row r="4" ht="40.7" customHeight="1">
-      <c r="A4" t="s" s="10">
+    <row r="4" ht="24.65" customHeight="1">
+      <c r="A4" t="s" s="17">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s" s="19">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s" s="19">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s" s="20">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="B4" t="s" s="11">
+      <c r="G4" t="s" s="21">
+        <v>19</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" ht="40.7" customHeight="1">
+      <c r="A5" t="s" s="17">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s" s="18">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s" s="19">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s" s="19">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s" s="20">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="C4" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s" s="12">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s" s="14">
-        <v>17</v>
-      </c>
-      <c r="H4" s="9"/>
+      <c r="G5" t="s" s="21">
+        <v>23</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" t="s" s="19">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
